--- a/src/data/output.xlsx
+++ b/src/data/output.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Meetings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="411" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="511" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="611" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="711" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="811" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,189 +438,2129 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Angel</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Christ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zayn</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Bob</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Christ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zayn</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Christ</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zayn</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Christ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>David</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zayn</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jericho</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AQ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AQ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Christ</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Ellen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Zayn</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Jericho</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Speedcat</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Speedcat</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CA Pro</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CA Pro</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
